--- a/NLP/mmtx_relations/manual_labelling/relation_counts_rough_translations.xlsx
+++ b/NLP/mmtx_relations/manual_labelling/relation_counts_rough_translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myahn\Code\mollahlab\crewATLAS\NLP\mmtx_relations\manual_labelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1D4E6-7122-4242-B01E-DC9790D71C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9FBD78-E4B1-4CE3-9800-C45354CF60E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9610" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
